--- a/platform_realvalues/GMM_summary.xlsx
+++ b/platform_realvalues/GMM_summary.xlsx
@@ -9,20 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="regular" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="9" r:id="rId2"/>
-    <sheet name="udm" sheetId="3" r:id="rId3"/>
-    <sheet name="cond" sheetId="4" r:id="rId4"/>
-    <sheet name="pce" sheetId="6" r:id="rId5"/>
-    <sheet name="frn" sheetId="5" r:id="rId6"/>
-    <sheet name="units" sheetId="7" r:id="rId7"/>
-    <sheet name="Hoja1" sheetId="8" r:id="rId8"/>
+    <sheet name="udm" sheetId="3" r:id="rId2"/>
+    <sheet name="cond" sheetId="4" r:id="rId3"/>
+    <sheet name="pce" sheetId="6" r:id="rId4"/>
+    <sheet name="frn" sheetId="5" r:id="rId5"/>
+    <sheet name="units" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">regular!$B$1:$BS$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">regular!$B$1:$BS$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">regular!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="331">
   <si>
     <t>log base</t>
   </si>
@@ -1024,42 +1022,6 @@
     <t>GMMValidation_GarciaJaimes2017VH</t>
   </si>
   <si>
-    <t xml:space="preserve">VLIN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">b    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a1   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a2   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a6   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a7   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a8   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a10  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">s2   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">s3   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">s4   </t>
-  </si>
-  <si>
     <t>Stewart et al. 2016</t>
   </si>
   <si>
@@ -1082,6 +1044,15 @@
   </si>
   <si>
     <t>http://dx.doi.org/10.1193/121814EQS213M</t>
+  </si>
+  <si>
+    <t>Akkar et al. 2014</t>
+  </si>
+  <si>
+    <t>Akkar2014</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10518-013-9461-4</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1337,10 +1308,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1351,726 +1318,750 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="283">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
+  <dxfs count="287">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <color theme="0"/>
       </font>
     </dxf>
@@ -3017,1018 +3008,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Hoja2!$A$5:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.4999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hoja2!$O$5:$O$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1.23</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.23</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.268</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3660000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4570000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5329999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.706</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.831</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.1139999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.3620000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.5270000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.5979999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.6850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.657</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.2650000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.46</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B3C3-4EE9-A8BC-386236CB0C71}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="297733824"/>
-        <c:axId val="297734240"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="297733824"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="297734240"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="297734240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="297733824"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>653142</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>125184</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>653142</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>122463</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4294,12 +3273,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS52"/>
+  <dimension ref="A1:BS53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="54" zoomScalePageLayoutView="52" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="54" zoomScalePageLayoutView="52" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
+      <selection pane="bottomLeft" activeCell="BS41" sqref="BS41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4766,14 +3745,14 @@
         <v>91</v>
       </c>
       <c r="D3" s="39" t="str">
-        <f t="shared" ref="D3:D52" si="0">"edit "&amp;C3</f>
+        <f t="shared" ref="D3:D53" si="0">"edit "&amp;C3</f>
         <v>edit AtkinsonBoore2003</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>153</v>
       </c>
       <c r="F3" s="39" t="str">
-        <f t="shared" ref="F3:F52" si="1">"edit "&amp;E3</f>
+        <f t="shared" ref="F3:F53" si="1">"edit "&amp;E3</f>
         <v>edit GMMValidation_AtkinsonBoore2003</v>
       </c>
       <c r="G3" s="40" t="s">
@@ -6108,8 +5087,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:71" s="50" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+    <row r="9" spans="1:71" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="47" t="s">
         <v>306</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -9466,17 +8445,17 @@
     </row>
     <row r="24" spans="2:71" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="42" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D24" s="43" t="str">
         <f t="shared" ref="D24:D25" si="4">"edit "&amp;C24</f>
         <v>edit SBSA2016</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="F24" s="43" t="str">
         <f t="shared" ref="F24:F25" si="5">"edit "&amp;E24</f>
@@ -9670,22 +8649,22 @@
         <v>300</v>
       </c>
       <c r="BS24" s="39" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="2:71" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="42" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D25" s="43" t="str">
         <f t="shared" si="4"/>
         <v>edit GKAS2017</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="F25" s="43" t="str">
         <f t="shared" si="5"/>
@@ -9879,7 +8858,7 @@
         <v>300</v>
       </c>
       <c r="BS25" s="43" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="2:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12807,228 +11786,228 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="2:71" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="42" t="s">
+    <row r="39" spans="2:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="43" t="str">
+      <c r="D39" s="39" t="str">
         <f t="shared" si="0"/>
         <v>edit AkkarBoomer2007</v>
       </c>
-      <c r="E39" s="43" t="s">
+      <c r="E39" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F39" s="43" t="str">
+      <c r="F39" s="39" t="str">
         <f t="shared" si="1"/>
         <v>edit GMMValidation_AkkarBoomer2007</v>
       </c>
-      <c r="G39" s="44">
+      <c r="G39" s="40">
         <v>10</v>
       </c>
-      <c r="H39" s="44" t="s">
+      <c r="H39" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="I39" s="44" t="s">
+      <c r="I39" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="J39" s="44" t="s">
+      <c r="J39" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="K39" s="44" t="s">
+      <c r="K39" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="L39" s="44">
-        <v>1</v>
-      </c>
-      <c r="M39" s="44">
-        <v>0</v>
-      </c>
-      <c r="N39" s="44">
-        <v>0</v>
-      </c>
-      <c r="O39" s="44">
-        <v>0</v>
-      </c>
-      <c r="P39" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="44">
-        <v>0</v>
-      </c>
-      <c r="R39" s="44">
-        <v>0</v>
-      </c>
-      <c r="S39" s="44">
-        <v>0</v>
-      </c>
-      <c r="T39" s="44">
-        <v>0</v>
-      </c>
-      <c r="U39" s="44">
-        <v>1</v>
-      </c>
-      <c r="V39" s="44">
-        <v>0</v>
-      </c>
-      <c r="W39" s="44" t="s">
+      <c r="L39" s="40">
+        <v>1</v>
+      </c>
+      <c r="M39" s="40">
+        <v>0</v>
+      </c>
+      <c r="N39" s="40">
+        <v>0</v>
+      </c>
+      <c r="O39" s="40">
+        <v>0</v>
+      </c>
+      <c r="P39" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="40">
+        <v>0</v>
+      </c>
+      <c r="R39" s="40">
+        <v>0</v>
+      </c>
+      <c r="S39" s="40">
+        <v>0</v>
+      </c>
+      <c r="T39" s="40">
+        <v>0</v>
+      </c>
+      <c r="U39" s="40">
+        <v>1</v>
+      </c>
+      <c r="V39" s="40">
+        <v>0</v>
+      </c>
+      <c r="W39" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="X39" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y39" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z39" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA39" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB39" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="AC39" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD39" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="AE39" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="AF39" s="44" t="s">
+      <c r="X39" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y39" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z39" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA39" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB39" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC39" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD39" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE39" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF39" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="AG39" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="AH39" s="44" t="str">
+      <c r="AG39" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH39" s="40" t="str">
         <f>VLOOKUP(W39,units!$B$4:$C$7,2,FALSE)</f>
         <v>1/980.66</v>
       </c>
-      <c r="AI39" s="44">
+      <c r="AI39" s="40">
         <f>VLOOKUP(X39,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AJ39" s="44">
+      <c r="AJ39" s="40">
         <f>VLOOKUP(Y39,units!$H$4:$I$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AK39" s="44">
+      <c r="AK39" s="40">
         <f>VLOOKUP(Z39,units!$K$4:$L$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AL39" s="44">
+      <c r="AL39" s="40">
         <f>VLOOKUP(AA39,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AM39" s="44">
+      <c r="AM39" s="40">
         <f>VLOOKUP(AB39,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AN39" s="44">
+      <c r="AN39" s="40">
         <f>VLOOKUP(AC39,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AO39" s="44">
+      <c r="AO39" s="40">
         <f>VLOOKUP(AD39,units!$B$4:$C$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AP39" s="44">
+      <c r="AP39" s="40">
         <f>VLOOKUP(AE39,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AQ39" s="44">
+      <c r="AQ39" s="40">
         <f>VLOOKUP(AF39,units!$H$4:$I$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AR39" s="44">
+      <c r="AR39" s="40">
         <f>VLOOKUP(AG39,units!$N$4:$O$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AS39" s="45">
-        <v>0</v>
-      </c>
-      <c r="AT39" s="45">
-        <v>0</v>
-      </c>
-      <c r="AU39" s="45">
-        <v>1</v>
-      </c>
-      <c r="AV39" s="45">
-        <v>0</v>
-      </c>
-      <c r="AW39" s="45">
-        <v>0</v>
-      </c>
-      <c r="AX39" s="45">
-        <v>0</v>
-      </c>
-      <c r="AY39" s="45">
-        <v>0</v>
-      </c>
-      <c r="AZ39" s="45">
-        <v>0</v>
-      </c>
-      <c r="BA39" s="45">
-        <v>0</v>
-      </c>
-      <c r="BB39" s="45">
-        <v>0</v>
-      </c>
-      <c r="BC39" s="45">
-        <v>0</v>
-      </c>
-      <c r="BD39" s="44">
-        <v>0</v>
-      </c>
-      <c r="BE39" s="44">
-        <v>0</v>
-      </c>
-      <c r="BF39" s="44">
-        <v>1</v>
-      </c>
-      <c r="BG39" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH39" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI39" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="BJ39" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="BK39" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="BL39" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="BM39" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="BN39" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="BO39" s="44">
+      <c r="AS39" s="41">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="41">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="41">
+        <v>1</v>
+      </c>
+      <c r="AV39" s="41">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="41">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="41">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="41">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="41">
+        <v>0</v>
+      </c>
+      <c r="BA39" s="41">
+        <v>0</v>
+      </c>
+      <c r="BB39" s="41">
+        <v>0</v>
+      </c>
+      <c r="BC39" s="41">
+        <v>0</v>
+      </c>
+      <c r="BD39" s="40">
+        <v>0</v>
+      </c>
+      <c r="BE39" s="40">
+        <v>0</v>
+      </c>
+      <c r="BF39" s="40">
+        <v>1</v>
+      </c>
+      <c r="BG39" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH39" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BI39" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ39" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK39" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BL39" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BM39" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN39" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO39" s="40">
         <v>5</v>
       </c>
-      <c r="BP39" s="44">
+      <c r="BP39" s="40">
         <v>7.6</v>
       </c>
-      <c r="BQ39" s="44">
-        <v>0</v>
-      </c>
-      <c r="BR39" s="44">
+      <c r="BQ39" s="40">
+        <v>0</v>
+      </c>
+      <c r="BR39" s="40">
         <v>100</v>
       </c>
-      <c r="BS39" s="43" t="s">
+      <c r="BS39" s="39" t="s">
         <v>74</v>
       </c>
     </row>
@@ -13257,251 +12236,235 @@
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="2:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="39" t="str">
+    <row r="41" spans="2:71" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="D41" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>edit Arroyo2010</v>
-      </c>
-      <c r="E41" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="F41" s="39" t="str">
+        <v>edit Akkar2014</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="F41" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_Arroyo2010</v>
-      </c>
-      <c r="G41" s="40" t="s">
+        <v>edit GMMValidation_AkkarBoomer2010</v>
+      </c>
+      <c r="G41" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H41" s="40" t="s">
+      <c r="H41" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="I41" s="40" t="s">
+      <c r="I41" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="J41" s="40" t="s">
+      <c r="J41" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="K41" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="L41" s="40">
-        <v>1</v>
-      </c>
-      <c r="M41" s="40">
-        <v>0</v>
-      </c>
-      <c r="N41" s="40">
-        <v>0</v>
-      </c>
-      <c r="O41" s="40">
-        <v>0</v>
-      </c>
-      <c r="P41" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="40">
-        <v>0</v>
-      </c>
-      <c r="R41" s="40">
-        <v>0</v>
-      </c>
-      <c r="S41" s="40">
-        <v>1</v>
-      </c>
-      <c r="T41" s="40">
-        <v>0</v>
-      </c>
-      <c r="U41" s="40">
-        <v>0</v>
-      </c>
-      <c r="V41" s="40">
-        <v>0</v>
-      </c>
-      <c r="W41" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="X41" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y41" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z41" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA41" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB41" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="AC41" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD41" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE41" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="AF41" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="AG41" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="AH41" s="40" t="str">
+      <c r="K41" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="L41" s="44">
+        <v>1</v>
+      </c>
+      <c r="M41" s="44">
+        <v>1</v>
+      </c>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44">
+        <v>1</v>
+      </c>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="X41" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y41" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z41" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA41" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB41" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC41" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD41" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE41" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF41" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG41" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH41" s="44">
         <f>VLOOKUP(W41,units!$B$4:$C$7,2,FALSE)</f>
-        <v>1/980.66</v>
-      </c>
-      <c r="AI41" s="40">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="44">
         <f>VLOOKUP(X41,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AJ41" s="40">
+      <c r="AJ41" s="44">
         <f>VLOOKUP(Y41,units!$H$4:$I$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AK41" s="40">
+      <c r="AK41" s="44">
         <f>VLOOKUP(Z41,units!$K$4:$L$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AL41" s="40">
+      <c r="AL41" s="44">
         <f>VLOOKUP(AA41,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AM41" s="40">
+      <c r="AM41" s="44">
         <f>VLOOKUP(AB41,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AN41" s="40">
+      <c r="AN41" s="44">
         <f>VLOOKUP(AC41,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AO41" s="40" t="str">
+      <c r="AO41" s="44">
         <f>VLOOKUP(AD41,units!$B$4:$C$7,2,FALSE)</f>
-        <v>1/980.66</v>
-      </c>
-      <c r="AP41" s="40">
+        <v>1</v>
+      </c>
+      <c r="AP41" s="44">
         <f>VLOOKUP(AE41,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AQ41" s="40">
+      <c r="AQ41" s="44">
         <f>VLOOKUP(AF41,units!$H$4:$I$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AR41" s="40">
+      <c r="AR41" s="44">
         <f>VLOOKUP(AG41,units!$N$4:$O$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AS41" s="41">
-        <v>1</v>
-      </c>
-      <c r="AT41" s="41">
-        <v>0</v>
-      </c>
-      <c r="AU41" s="41">
-        <v>0</v>
-      </c>
-      <c r="AV41" s="41">
-        <v>0</v>
-      </c>
-      <c r="AW41" s="41">
-        <v>0</v>
-      </c>
-      <c r="AX41" s="41">
-        <v>0</v>
-      </c>
-      <c r="AY41" s="41">
-        <v>0</v>
-      </c>
-      <c r="AZ41" s="41">
-        <v>0</v>
-      </c>
-      <c r="BA41" s="41">
-        <v>0</v>
-      </c>
-      <c r="BB41" s="41">
-        <v>0</v>
-      </c>
-      <c r="BC41" s="41">
-        <v>0</v>
-      </c>
-      <c r="BD41" s="40">
-        <v>1</v>
-      </c>
-      <c r="BE41" s="40">
-        <v>0</v>
-      </c>
-      <c r="BF41" s="40">
-        <v>0</v>
-      </c>
-      <c r="BG41" s="40">
-        <v>5</v>
-      </c>
-      <c r="BH41" s="40">
-        <v>8.5</v>
-      </c>
-      <c r="BI41" s="40">
-        <v>16</v>
-      </c>
-      <c r="BJ41" s="40">
-        <v>400</v>
-      </c>
-      <c r="BK41" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BL41" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BM41" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BN41" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BO41" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BP41" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BQ41" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BR41" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BS41" s="39" t="s">
-        <v>75</v>
+      <c r="AS41" s="45">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="45">
+        <v>1</v>
+      </c>
+      <c r="AU41" s="45">
+        <v>1</v>
+      </c>
+      <c r="AV41" s="45">
+        <v>1</v>
+      </c>
+      <c r="AW41" s="45">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="45">
+        <v>0</v>
+      </c>
+      <c r="AY41" s="45">
+        <v>0</v>
+      </c>
+      <c r="AZ41" s="45">
+        <v>0</v>
+      </c>
+      <c r="BA41" s="45">
+        <v>0</v>
+      </c>
+      <c r="BB41" s="45">
+        <v>0</v>
+      </c>
+      <c r="BC41" s="45">
+        <v>0</v>
+      </c>
+      <c r="BD41" s="44">
+        <v>0</v>
+      </c>
+      <c r="BE41" s="44">
+        <v>0</v>
+      </c>
+      <c r="BF41" s="44">
+        <v>1</v>
+      </c>
+      <c r="BG41" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH41" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="BI41" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ41" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK41" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="BL41" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="BM41" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN41" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO41" s="44">
+        <v>4</v>
+      </c>
+      <c r="BP41" s="44">
+        <v>8</v>
+      </c>
+      <c r="BQ41" s="44">
+        <v>0</v>
+      </c>
+      <c r="BR41" s="44">
+        <v>200</v>
+      </c>
+      <c r="BS41" s="43" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="2:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D42" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>edit Bindi2011</v>
+        <v>edit Arroyo2010</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F42" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_Bindi2011</v>
-      </c>
-      <c r="G42" s="40">
-        <v>10</v>
+        <v>edit GMMValidation_Arroyo2010</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>40</v>
       </c>
       <c r="H42" s="40" t="s">
         <v>43</v>
@@ -13519,7 +12482,7 @@
         <v>1</v>
       </c>
       <c r="M42" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="40">
         <v>0</v>
@@ -13552,7 +12515,7 @@
         <v>89</v>
       </c>
       <c r="X42" s="40" t="s">
-        <v>119</v>
+        <v>248</v>
       </c>
       <c r="Y42" s="40" t="s">
         <v>248</v>
@@ -13626,13 +12589,13 @@
         <v>1</v>
       </c>
       <c r="AS42" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT42" s="41">
         <v>0</v>
       </c>
       <c r="AU42" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV42" s="41">
         <v>0</v>
@@ -13659,25 +12622,25 @@
         <v>0</v>
       </c>
       <c r="BD42" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE42" s="40">
         <v>0</v>
       </c>
       <c r="BF42" s="40">
-        <v>1</v>
-      </c>
-      <c r="BG42" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH42" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI42" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BJ42" s="40" t="s">
-        <v>132</v>
+        <v>0</v>
+      </c>
+      <c r="BG42" s="40">
+        <v>5</v>
+      </c>
+      <c r="BH42" s="40">
+        <v>8.5</v>
+      </c>
+      <c r="BI42" s="40">
+        <v>16</v>
+      </c>
+      <c r="BJ42" s="40">
+        <v>400</v>
       </c>
       <c r="BK42" s="40" t="s">
         <v>132</v>
@@ -13691,45 +12654,45 @@
       <c r="BN42" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="BO42" s="40">
-        <v>4</v>
-      </c>
-      <c r="BP42" s="40">
-        <v>6.9</v>
-      </c>
-      <c r="BQ42" s="40">
-        <v>0.1</v>
-      </c>
-      <c r="BR42" s="40">
-        <v>200</v>
+      <c r="BO42" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BP42" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BQ42" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR42" s="40" t="s">
+        <v>132</v>
       </c>
       <c r="BS42" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="2:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="38" t="s">
-        <v>210</v>
+        <v>35</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="D43" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>edit Kanno2006</v>
+        <v>edit Bindi2011</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F43" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_Kanno2006</v>
+        <v>edit GMMValidation_Bindi2011</v>
       </c>
       <c r="G43" s="40">
         <v>10</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I43" s="40" t="s">
         <v>44</v>
@@ -13851,13 +12814,13 @@
         <v>1</v>
       </c>
       <c r="AS43" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="41">
         <v>0</v>
       </c>
       <c r="AU43" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV43" s="41">
         <v>0</v>
@@ -13872,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="AZ43" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA43" s="41">
         <v>0</v>
@@ -13884,77 +12847,77 @@
         <v>0</v>
       </c>
       <c r="BD43" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE43" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF43" s="40">
-        <v>0</v>
-      </c>
-      <c r="BG43" s="40">
-        <v>5.5</v>
-      </c>
-      <c r="BH43" s="40">
-        <v>8</v>
-      </c>
-      <c r="BI43" s="40">
-        <v>1</v>
-      </c>
-      <c r="BJ43" s="40">
-        <v>400</v>
-      </c>
-      <c r="BK43" s="40">
-        <v>5.5</v>
-      </c>
-      <c r="BL43" s="40">
-        <v>8</v>
-      </c>
-      <c r="BM43" s="40">
-        <v>1</v>
-      </c>
-      <c r="BN43" s="40">
-        <v>400</v>
-      </c>
-      <c r="BO43" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BP43" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BQ43" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BR43" s="40" t="s">
-        <v>132</v>
+        <v>1</v>
+      </c>
+      <c r="BG43" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH43" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BI43" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ43" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK43" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BL43" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BM43" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN43" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO43" s="40">
+        <v>4</v>
+      </c>
+      <c r="BP43" s="40">
+        <v>6.9</v>
+      </c>
+      <c r="BQ43" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="BR43" s="40">
+        <v>200</v>
       </c>
       <c r="BS43" s="39" t="s">
-        <v>209</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="2:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="38" t="s">
-        <v>296</v>
+        <v>210</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>297</v>
+        <v>207</v>
       </c>
       <c r="D44" s="39" t="str">
-        <f>"edit "&amp;C44</f>
-        <v>edit Cauzzi2015</v>
+        <f t="shared" si="0"/>
+        <v>edit Kanno2006</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>298</v>
+        <v>208</v>
       </c>
       <c r="F44" s="39" t="str">
-        <f>"edit "&amp;E44</f>
-        <v>edit GMMValidation_Cauzzi2015</v>
+        <f t="shared" si="1"/>
+        <v>edit GMMValidation_Kanno2006</v>
       </c>
       <c r="G44" s="40">
         <v>10</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I44" s="40" t="s">
         <v>44</v>
@@ -13993,7 +12956,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44" s="40">
         <v>0</v>
@@ -14026,7 +12989,7 @@
         <v>248</v>
       </c>
       <c r="AF44" s="40" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="AG44" s="40" t="s">
         <v>248</v>
@@ -14079,7 +13042,7 @@
         <v>1</v>
       </c>
       <c r="AT44" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="41">
         <v>0</v>
@@ -14097,7 +13060,7 @@
         <v>0</v>
       </c>
       <c r="AZ44" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA44" s="41">
         <v>0</v>
@@ -14109,74 +13072,74 @@
         <v>0</v>
       </c>
       <c r="BD44" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE44" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF44" s="40">
-        <v>1</v>
-      </c>
-      <c r="BG44" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH44" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI44" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BJ44" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BK44" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BL44" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BM44" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BN44" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BO44" s="40">
-        <v>4.5</v>
-      </c>
-      <c r="BP44" s="40">
-        <v>7.9</v>
-      </c>
-      <c r="BQ44" s="40">
-        <v>0</v>
-      </c>
-      <c r="BR44" s="40">
-        <v>150</v>
+        <v>0</v>
+      </c>
+      <c r="BG44" s="40">
+        <v>5.5</v>
+      </c>
+      <c r="BH44" s="40">
+        <v>8</v>
+      </c>
+      <c r="BI44" s="40">
+        <v>1</v>
+      </c>
+      <c r="BJ44" s="40">
+        <v>400</v>
+      </c>
+      <c r="BK44" s="40">
+        <v>5.5</v>
+      </c>
+      <c r="BL44" s="40">
+        <v>8</v>
+      </c>
+      <c r="BM44" s="40">
+        <v>1</v>
+      </c>
+      <c r="BN44" s="40">
+        <v>400</v>
+      </c>
+      <c r="BO44" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BP44" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BQ44" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR44" s="40" t="s">
+        <v>132</v>
       </c>
       <c r="BS44" s="39" t="s">
-        <v>299</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="2:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="38" t="s">
-        <v>36</v>
+        <v>296</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>112</v>
+        <v>297</v>
       </c>
       <c r="D45" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>edit DW12</v>
+        <f>"edit "&amp;C45</f>
+        <v>edit Cauzzi2015</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>184</v>
+        <v>298</v>
       </c>
       <c r="F45" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>edit GMMValidation_DW12</v>
-      </c>
-      <c r="G45" s="40" t="s">
-        <v>40</v>
+        <f>"edit "&amp;E45</f>
+        <v>edit GMMValidation_Cauzzi2015</v>
+      </c>
+      <c r="G45" s="40">
+        <v>10</v>
       </c>
       <c r="H45" s="40" t="s">
         <v>43</v>
@@ -14191,10 +13154,10 @@
         <v>44</v>
       </c>
       <c r="L45" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="40">
         <v>0</v>
@@ -14203,7 +13166,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="40">
         <v>0</v>
@@ -14212,22 +13175,22 @@
         <v>0</v>
       </c>
       <c r="S45" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" s="40">
         <v>0</v>
       </c>
       <c r="U45" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45" s="40">
         <v>0</v>
       </c>
       <c r="W45" s="40" t="s">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="X45" s="40" t="s">
-        <v>248</v>
+        <v>119</v>
       </c>
       <c r="Y45" s="40" t="s">
         <v>248</v>
@@ -14236,7 +13199,7 @@
         <v>248</v>
       </c>
       <c r="AA45" s="40" t="s">
-        <v>117</v>
+        <v>248</v>
       </c>
       <c r="AB45" s="40" t="s">
         <v>248</v>
@@ -14245,20 +13208,20 @@
         <v>248</v>
       </c>
       <c r="AD45" s="40" t="s">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="AE45" s="40" t="s">
         <v>248</v>
       </c>
       <c r="AF45" s="40" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="AG45" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="AH45" s="40">
+      <c r="AH45" s="40" t="str">
         <f>VLOOKUP(W45,units!$B$4:$C$7,2,FALSE)</f>
-        <v>1</v>
+        <v>1/980.66</v>
       </c>
       <c r="AI45" s="40">
         <f>VLOOKUP(X45,units!$E$4:$F$7,2,FALSE)</f>
@@ -14274,7 +13237,7 @@
       </c>
       <c r="AL45" s="40">
         <f>VLOOKUP(AA45,units!$E$4:$F$7,2,FALSE)</f>
-        <v>980.66</v>
+        <v>1</v>
       </c>
       <c r="AM45" s="40">
         <f>VLOOKUP(AB45,units!$E$4:$F$7,2,FALSE)</f>
@@ -14284,9 +13247,9 @@
         <f>VLOOKUP(AC45,units!$E$4:$F$7,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AO45" s="40">
+      <c r="AO45" s="40" t="str">
         <f>VLOOKUP(AD45,units!$B$4:$C$7,2,FALSE)</f>
-        <v>1</v>
+        <v>1/980.66</v>
       </c>
       <c r="AP45" s="40">
         <f>VLOOKUP(AE45,units!$E$4:$F$7,2,FALSE)</f>
@@ -14304,7 +13267,7 @@
         <v>1</v>
       </c>
       <c r="AT45" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU45" s="41">
         <v>0</v>
@@ -14367,38 +13330,38 @@
         <v>132</v>
       </c>
       <c r="BO45" s="40">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BP45" s="40">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="BQ45" s="40">
         <v>0</v>
       </c>
       <c r="BR45" s="40">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BS45" s="39" t="s">
-        <v>77</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="2:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>edit FG15</v>
+        <v>edit DW12</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F46" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_FG15</v>
+        <v>edit GMMValidation_DW12</v>
       </c>
       <c r="G46" s="40" t="s">
         <v>40</v>
@@ -14431,7 +13394,7 @@
         <v>1</v>
       </c>
       <c r="Q46" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" s="40">
         <v>0</v>
@@ -14461,10 +13424,10 @@
         <v>248</v>
       </c>
       <c r="AA46" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB46" s="40" t="s">
-        <v>118</v>
+        <v>248</v>
       </c>
       <c r="AC46" s="40" t="s">
         <v>248</v>
@@ -14499,11 +13462,11 @@
       </c>
       <c r="AL46" s="40">
         <f>VLOOKUP(AA46,units!$E$4:$F$7,2,FALSE)</f>
-        <v>100</v>
+        <v>980.66</v>
       </c>
       <c r="AM46" s="40">
         <f>VLOOKUP(AB46,units!$E$4:$F$7,2,FALSE)</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AN46" s="40">
         <f>VLOOKUP(AC46,units!$E$4:$F$7,2,FALSE)</f>
@@ -14595,35 +13558,35 @@
         <v>5</v>
       </c>
       <c r="BP46" s="40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BQ46" s="40">
         <v>0</v>
       </c>
       <c r="BR46" s="40">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="BS46" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="2:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="38" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D47" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>edit TBA03</v>
+        <v>edit FG15</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F47" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_TBA03</v>
+        <v>edit GMMValidation_FG15</v>
       </c>
       <c r="G47" s="40" t="s">
         <v>40</v>
@@ -14653,7 +13616,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="40">
         <v>1</v>
@@ -14686,7 +13649,7 @@
         <v>248</v>
       </c>
       <c r="AA47" s="40" t="s">
-        <v>248</v>
+        <v>118</v>
       </c>
       <c r="AB47" s="40" t="s">
         <v>118</v>
@@ -14724,7 +13687,7 @@
       </c>
       <c r="AL47" s="40">
         <f>VLOOKUP(AA47,units!$E$4:$F$7,2,FALSE)</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AM47" s="40">
         <f>VLOOKUP(AB47,units!$E$4:$F$7,2,FALSE)</f>
@@ -14817,38 +13780,38 @@
         <v>132</v>
       </c>
       <c r="BO47" s="40">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="BP47" s="40">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="BQ47" s="40">
         <v>0</v>
       </c>
       <c r="BR47" s="40">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BS47" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="2:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="38" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D48" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>edit BU17</v>
+        <v>edit TBA03</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F48" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_BU17</v>
+        <v>edit GMMValidation_TBA03</v>
       </c>
       <c r="G48" s="40" t="s">
         <v>40</v>
@@ -14878,13 +13841,13 @@
         <v>0</v>
       </c>
       <c r="P48" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="40">
         <v>1</v>
       </c>
       <c r="R48" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" s="40">
         <v>0</v>
@@ -14911,13 +13874,13 @@
         <v>248</v>
       </c>
       <c r="AA48" s="40" t="s">
-        <v>119</v>
+        <v>248</v>
       </c>
       <c r="AB48" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC48" s="40" t="s">
-        <v>119</v>
+        <v>248</v>
       </c>
       <c r="AD48" s="40" t="s">
         <v>248</v>
@@ -14953,7 +13916,7 @@
       </c>
       <c r="AM48" s="40">
         <f>VLOOKUP(AB48,units!$E$4:$F$7,2,FALSE)</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AN48" s="40">
         <f>VLOOKUP(AC48,units!$E$4:$F$7,2,FALSE)</f>
@@ -15009,71 +13972,71 @@
         <v>0</v>
       </c>
       <c r="BD48" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE48" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF48" s="40">
         <v>1</v>
       </c>
-      <c r="BG48" s="40">
-        <v>5</v>
-      </c>
-      <c r="BH48" s="40">
-        <v>9</v>
-      </c>
-      <c r="BI48" s="40">
-        <v>0</v>
-      </c>
-      <c r="BJ48" s="40">
-        <v>300</v>
-      </c>
-      <c r="BK48" s="40">
-        <v>5</v>
-      </c>
-      <c r="BL48" s="40">
-        <v>9</v>
-      </c>
-      <c r="BM48" s="40">
-        <v>0</v>
-      </c>
-      <c r="BN48" s="40">
-        <v>300</v>
+      <c r="BG48" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH48" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BI48" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ48" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK48" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BL48" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BM48" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN48" s="40" t="s">
+        <v>132</v>
       </c>
       <c r="BO48" s="40">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="BP48" s="40">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="BQ48" s="40">
         <v>0</v>
       </c>
       <c r="BR48" s="40">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="BS48" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="2:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="38" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="D49" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>edit CB10</v>
+        <v>edit BU17</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F49" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_CB10</v>
+        <v>edit GMMValidation_BU17</v>
       </c>
       <c r="G49" s="40" t="s">
         <v>40</v>
@@ -15106,10 +14069,10 @@
         <v>1</v>
       </c>
       <c r="Q49" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" s="40">
         <v>0</v>
@@ -15136,13 +14099,13 @@
         <v>248</v>
       </c>
       <c r="AA49" s="40" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AB49" s="40" t="s">
-        <v>248</v>
+        <v>119</v>
       </c>
       <c r="AC49" s="40" t="s">
-        <v>248</v>
+        <v>119</v>
       </c>
       <c r="AD49" s="40" t="s">
         <v>248</v>
@@ -15174,7 +14137,7 @@
       </c>
       <c r="AL49" s="40">
         <f>VLOOKUP(AA49,units!$E$4:$F$7,2,FALSE)</f>
-        <v>980.66</v>
+        <v>1</v>
       </c>
       <c r="AM49" s="40">
         <f>VLOOKUP(AB49,units!$E$4:$F$7,2,FALSE)</f>
@@ -15207,7 +14170,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="41">
         <v>0</v>
@@ -15225,7 +14188,7 @@
         <v>0</v>
       </c>
       <c r="BA49" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="41">
         <v>0</v>
@@ -15234,43 +14197,43 @@
         <v>0</v>
       </c>
       <c r="BD49" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE49" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF49" s="40">
         <v>1</v>
       </c>
-      <c r="BG49" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH49" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI49" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BJ49" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BK49" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BL49" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BM49" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="BN49" s="40" t="s">
-        <v>132</v>
+      <c r="BG49" s="40">
+        <v>5</v>
+      </c>
+      <c r="BH49" s="40">
+        <v>9</v>
+      </c>
+      <c r="BI49" s="40">
+        <v>0</v>
+      </c>
+      <c r="BJ49" s="40">
+        <v>300</v>
+      </c>
+      <c r="BK49" s="40">
+        <v>5</v>
+      </c>
+      <c r="BL49" s="40">
+        <v>9</v>
+      </c>
+      <c r="BM49" s="40">
+        <v>0</v>
+      </c>
+      <c r="BN49" s="40">
+        <v>300</v>
       </c>
       <c r="BO49" s="40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP49" s="40">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BQ49" s="40">
         <v>0</v>
@@ -15279,26 +14242,26 @@
         <v>200</v>
       </c>
       <c r="BS49" s="39" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="2:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="38" t="s">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="D50" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>edit CB11</v>
+        <v>edit CB10</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="F50" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_CB11</v>
+        <v>edit GMMValidation_CB10</v>
       </c>
       <c r="G50" s="40" t="s">
         <v>40</v>
@@ -15504,26 +14467,26 @@
         <v>200</v>
       </c>
       <c r="BS50" s="39" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="2:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="38" t="s">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="D51" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>edit CB19</v>
+        <v>edit CB11</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="F51" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_CB19</v>
+        <v>edit GMMValidation_CB11</v>
       </c>
       <c r="G51" s="40" t="s">
         <v>40</v>
@@ -15556,7 +14519,7 @@
         <v>1</v>
       </c>
       <c r="Q51" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51" s="40">
         <v>0</v>
@@ -15586,10 +14549,10 @@
         <v>248</v>
       </c>
       <c r="AA51" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB51" s="40" t="s">
-        <v>118</v>
+        <v>248</v>
       </c>
       <c r="AC51" s="40" t="s">
         <v>248</v>
@@ -15624,11 +14587,11 @@
       </c>
       <c r="AL51" s="40">
         <f>VLOOKUP(AA51,units!$E$4:$F$7,2,FALSE)</f>
-        <v>100</v>
+        <v>980.66</v>
       </c>
       <c r="AM51" s="40">
         <f>VLOOKUP(AB51,units!$E$4:$F$7,2,FALSE)</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AN51" s="40">
         <f>VLOOKUP(AC51,units!$E$4:$F$7,2,FALSE)</f>
@@ -15666,13 +14629,13 @@
         <v>0</v>
       </c>
       <c r="AX51" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="41">
         <v>0</v>
       </c>
       <c r="AZ51" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="41">
         <v>1</v>
@@ -15681,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="BC51" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD51" s="40">
         <v>0</v>
@@ -15717,7 +14680,7 @@
         <v>132</v>
       </c>
       <c r="BO51" s="40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BP51" s="40">
         <v>8.5</v>
@@ -15726,35 +14689,35 @@
         <v>0</v>
       </c>
       <c r="BR51" s="40">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="BS51" s="39" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="2:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D52" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>edit KM06</v>
+        <v>edit CB19</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F52" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>edit GMMValidation_KM06</v>
+        <v>edit GMMValidation_CB19</v>
       </c>
       <c r="G52" s="40" t="s">
         <v>40</v>
       </c>
       <c r="H52" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I52" s="40" t="s">
         <v>44</v>
@@ -15781,7 +14744,7 @@
         <v>1</v>
       </c>
       <c r="Q52" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="40">
         <v>0</v>
@@ -15814,7 +14777,7 @@
         <v>118</v>
       </c>
       <c r="AB52" s="40" t="s">
-        <v>248</v>
+        <v>118</v>
       </c>
       <c r="AC52" s="40" t="s">
         <v>248</v>
@@ -15853,7 +14816,7 @@
       </c>
       <c r="AM52" s="40">
         <f>VLOOKUP(AB52,units!$E$4:$F$7,2,FALSE)</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AN52" s="40">
         <f>VLOOKUP(AC52,units!$E$4:$F$7,2,FALSE)</f>
@@ -15882,7 +14845,7 @@
         <v>0</v>
       </c>
       <c r="AU52" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV52" s="41">
         <v>0</v>
@@ -15891,22 +14854,22 @@
         <v>0</v>
       </c>
       <c r="AX52" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY52" s="41">
         <v>0</v>
       </c>
       <c r="AZ52" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA52" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB52" s="41">
         <v>0</v>
       </c>
       <c r="BC52" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD52" s="40">
         <v>0</v>
@@ -15942,2049 +14905,1090 @@
         <v>132</v>
       </c>
       <c r="BO52" s="40">
+        <v>3</v>
+      </c>
+      <c r="BP52" s="40">
+        <v>8.5</v>
+      </c>
+      <c r="BQ52" s="40">
+        <v>0</v>
+      </c>
+      <c r="BR52" s="40">
+        <v>300</v>
+      </c>
+      <c r="BS52" s="39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="2:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>edit KM06</v>
+      </c>
+      <c r="E53" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>edit GMMValidation_KM06</v>
+      </c>
+      <c r="G53" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I53" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="J53" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K53" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="L53" s="40">
+        <v>0</v>
+      </c>
+      <c r="M53" s="40">
+        <v>0</v>
+      </c>
+      <c r="N53" s="40">
+        <v>0</v>
+      </c>
+      <c r="O53" s="40">
+        <v>0</v>
+      </c>
+      <c r="P53" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="40">
+        <v>0</v>
+      </c>
+      <c r="R53" s="40">
+        <v>0</v>
+      </c>
+      <c r="S53" s="40">
+        <v>0</v>
+      </c>
+      <c r="T53" s="40">
+        <v>0</v>
+      </c>
+      <c r="U53" s="40">
+        <v>0</v>
+      </c>
+      <c r="V53" s="40">
+        <v>0</v>
+      </c>
+      <c r="W53" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="X53" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y53" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z53" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA53" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB53" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC53" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD53" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE53" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF53" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG53" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH53" s="40">
+        <f>VLOOKUP(W53,units!$B$4:$C$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AI53" s="40">
+        <f>VLOOKUP(X53,units!$E$4:$F$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ53" s="40">
+        <f>VLOOKUP(Y53,units!$H$4:$I$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK53" s="40">
+        <f>VLOOKUP(Z53,units!$K$4:$L$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AL53" s="40">
+        <f>VLOOKUP(AA53,units!$E$4:$F$7,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="AM53" s="40">
+        <f>VLOOKUP(AB53,units!$E$4:$F$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AN53" s="40">
+        <f>VLOOKUP(AC53,units!$E$4:$F$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AO53" s="40">
+        <f>VLOOKUP(AD53,units!$B$4:$C$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AP53" s="40">
+        <f>VLOOKUP(AE53,units!$E$4:$F$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ53" s="40">
+        <f>VLOOKUP(AF53,units!$H$4:$I$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AR53" s="40">
+        <f>VLOOKUP(AG53,units!$N$4:$O$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AS53" s="41">
+        <v>1</v>
+      </c>
+      <c r="AT53" s="41">
+        <v>0</v>
+      </c>
+      <c r="AU53" s="41">
+        <v>0</v>
+      </c>
+      <c r="AV53" s="41">
+        <v>0</v>
+      </c>
+      <c r="AW53" s="41">
+        <v>0</v>
+      </c>
+      <c r="AX53" s="41">
+        <v>0</v>
+      </c>
+      <c r="AY53" s="41">
+        <v>0</v>
+      </c>
+      <c r="AZ53" s="41">
+        <v>0</v>
+      </c>
+      <c r="BA53" s="41">
+        <v>0</v>
+      </c>
+      <c r="BB53" s="41">
+        <v>0</v>
+      </c>
+      <c r="BC53" s="41">
+        <v>0</v>
+      </c>
+      <c r="BD53" s="40">
+        <v>0</v>
+      </c>
+      <c r="BE53" s="40">
+        <v>0</v>
+      </c>
+      <c r="BF53" s="40">
+        <v>1</v>
+      </c>
+      <c r="BG53" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH53" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BI53" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ53" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK53" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BL53" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BM53" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN53" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO53" s="40">
         <v>4.7</v>
       </c>
-      <c r="BP52" s="40">
+      <c r="BP53" s="40">
         <v>7.4</v>
       </c>
-      <c r="BQ52" s="40">
-        <v>0</v>
-      </c>
-      <c r="BR52" s="40">
+      <c r="BQ53" s="40">
+        <v>0</v>
+      </c>
+      <c r="BR53" s="40">
         <v>100</v>
       </c>
-      <c r="BS52" s="39" t="s">
+      <c r="BS53" s="39" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B42:C43 B11:C14 B8:B10 B3:C7 D3:D14 AS42:BC43 AS26:BC39 BS51:BS52 BS2:BS8 BS41:BS43 L26:V43 E11:E14 E3:E7 AS51:BC52 AS53:BS1048576 BD45:BR52 L45:V52 BS45:BS48 AS45:BC49 T2:V14 L2:R14 AS2:BR14 BS11:BS14 L16:R23 T16:V21 AS16:BC21 I3:K23 F3:H14 B53:AG1048576 B44:H52 B2:K2 B15:H23 BD16:BS23 BS26:BS39 BD26:BR43 D26:H43 I26:K52 B26:C40">
-    <cfRule type="cellIs" dxfId="282" priority="199" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS49">
-    <cfRule type="cellIs" dxfId="281" priority="197" operator="equal">
+  <conditionalFormatting sqref="B43:C44 B11:C14 B8:B10 B3:C7 D3:D14 AS43:BC44 AS26:BC39 BS52:BS53 BS2:BS8 BS42:BS44 L26:V44 E11:E14 E3:E7 AS52:BC53 AS54:BS1048576 BD46:BR53 L46:V53 BS46:BS49 AS46:BC50 T2:V14 L2:R14 AS2:BR14 BS11:BS14 L16:R23 T16:V21 AS16:BC21 I3:K23 F3:H14 B54:AG1048576 B45:H53 B2:K2 B15:H23 BD16:BS23 BS26:BS39 B26:C41 D26:K40 D42:H44 D41:G41 I42:K53 BD26:BR44">
+    <cfRule type="cellIs" dxfId="286" priority="203" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS50">
+    <cfRule type="cellIs" dxfId="285" priority="201" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S14 S16:S21">
-    <cfRule type="cellIs" dxfId="280" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="200" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22:V23 AS22:BC23">
-    <cfRule type="cellIs" dxfId="279" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="199" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S22:S23">
-    <cfRule type="cellIs" dxfId="278" priority="194" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41:C41 AS41:BC41">
-    <cfRule type="cellIs" dxfId="277" priority="192" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS40:BC40">
-    <cfRule type="cellIs" dxfId="276" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="198" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:C42 AS42:BC42">
+    <cfRule type="cellIs" dxfId="281" priority="196" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS40:BC41">
+    <cfRule type="cellIs" dxfId="280" priority="194" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS40">
-    <cfRule type="cellIs" dxfId="275" priority="188" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L51:V52 L45:V49 L2:V14 L16:V23 L26:V43">
-    <cfRule type="cellIs" dxfId="274" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="192" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L52:V53 L46:V50 L2:V14 L16:V23 L26:V44">
+    <cfRule type="cellIs" dxfId="278" priority="191" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS43:BC43">
-    <cfRule type="cellIs" dxfId="273" priority="186" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L43:V43">
-    <cfRule type="cellIs" dxfId="272" priority="184" operator="equal">
+  <conditionalFormatting sqref="AS44:BC44">
+    <cfRule type="cellIs" dxfId="277" priority="190" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L44:V44">
+    <cfRule type="cellIs" dxfId="276" priority="188" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS43">
-    <cfRule type="cellIs" dxfId="271" priority="183" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS50:BC50">
-    <cfRule type="cellIs" dxfId="270" priority="182" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L50:V50">
-    <cfRule type="cellIs" dxfId="269" priority="179" operator="equal">
+  <conditionalFormatting sqref="BS44">
+    <cfRule type="cellIs" dxfId="275" priority="187" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS51:BC51">
+    <cfRule type="cellIs" dxfId="274" priority="186" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51:V51">
+    <cfRule type="cellIs" dxfId="273" priority="183" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS50">
-    <cfRule type="cellIs" dxfId="268" priority="178" operator="equal">
+  <conditionalFormatting sqref="BS51">
+    <cfRule type="cellIs" dxfId="272" priority="182" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C10 E8:E10">
-    <cfRule type="cellIs" dxfId="267" priority="177" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X2:AC2 W26:AG39 W51:AG52 W42:AG43 W45:AG49 W3:AC14 AE2:AG14 AE16:AG21 W16:AC21">
+    <cfRule type="cellIs" dxfId="271" priority="181" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:AC2 W26:AG39 W52:AG53 W43:AG44 W46:AG50 W3:AC14 AE2:AG14 AE16:AG21 W16:AC21">
+    <cfRule type="cellIs" dxfId="270" priority="179" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AD14 AD16:AD21">
+    <cfRule type="cellIs" dxfId="269" priority="178" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE22:AG23 W22:AC23 X23:AG23">
+    <cfRule type="cellIs" dxfId="268" priority="177" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD22:AD23">
+    <cfRule type="cellIs" dxfId="267" priority="176" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W42:AG42">
     <cfRule type="cellIs" dxfId="266" priority="175" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD14 AD16:AD21">
+  <conditionalFormatting sqref="W40:AG41">
     <cfRule type="cellIs" dxfId="265" priority="174" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE22:AG23 W22:AC23 X23:AG23">
+  <conditionalFormatting sqref="X2:AG2 W2:W14 W52:AG53 W46:W53 W46:AG50 W3:AG14 W16:AG23 W26:AG44">
     <cfRule type="cellIs" dxfId="264" priority="173" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD22:AD23">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W44:AG44">
     <cfRule type="cellIs" dxfId="263" priority="172" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W41:AG41">
+  <conditionalFormatting sqref="W44:AG44">
     <cfRule type="cellIs" dxfId="262" priority="171" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W40:AG40">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W51:AG51">
     <cfRule type="cellIs" dxfId="261" priority="170" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:AG2 W2:W14 W51:AG52 W45:W52 W45:AG49 W3:AG14 W16:AG23 W26:AG43">
+  <conditionalFormatting sqref="W51:AG51">
     <cfRule type="cellIs" dxfId="260" priority="169" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W43:AG43">
-    <cfRule type="cellIs" dxfId="259" priority="168" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W43:AG43">
+  <conditionalFormatting sqref="X40:X41">
+    <cfRule type="cellIs" dxfId="259" priority="139" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W46:AG53 W2:AG14 W16:AG23 W26:AG44">
     <cfRule type="cellIs" dxfId="258" priority="167" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W46:AG53 W2:AG14 W16:AG23 W26:AG44">
+    <cfRule type="cellIs" dxfId="257" priority="166" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W50:AG50">
-    <cfRule type="cellIs" dxfId="257" priority="166" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W50:AG50">
+  <conditionalFormatting sqref="W2:W14 W46:W53 W16:W23 W26:W44">
     <cfRule type="cellIs" dxfId="256" priority="165" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD3:AD4">
+    <cfRule type="cellIs" dxfId="255" priority="164" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD3:AD4">
+    <cfRule type="cellIs" dxfId="254" priority="163" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD5:AD14 AD16">
+    <cfRule type="cellIs" dxfId="253" priority="162" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD5:AD14 AD16">
+    <cfRule type="cellIs" dxfId="252" priority="161" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD20:AD21 AD17:AD18">
+    <cfRule type="cellIs" dxfId="251" priority="160" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD26 AD20:AD21 AD17:AD18">
+    <cfRule type="cellIs" dxfId="250" priority="159" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD27">
+    <cfRule type="cellIs" dxfId="249" priority="158" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD29">
+    <cfRule type="cellIs" dxfId="248" priority="157" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD30">
+    <cfRule type="cellIs" dxfId="247" priority="156" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD31">
+    <cfRule type="cellIs" dxfId="246" priority="155" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD32">
+    <cfRule type="cellIs" dxfId="245" priority="154" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD34">
+    <cfRule type="cellIs" dxfId="244" priority="153" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD35">
+    <cfRule type="cellIs" dxfId="243" priority="152" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD36">
+    <cfRule type="cellIs" dxfId="242" priority="151" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD37">
+    <cfRule type="cellIs" dxfId="241" priority="150" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD38">
+    <cfRule type="cellIs" dxfId="240" priority="149" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W40:W41">
+    <cfRule type="cellIs" dxfId="239" priority="148" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W42">
+    <cfRule type="cellIs" dxfId="238" priority="147" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD39">
+    <cfRule type="cellIs" dxfId="237" priority="146" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD40:AD41">
+    <cfRule type="cellIs" dxfId="236" priority="145" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD40:AD41">
+    <cfRule type="cellIs" dxfId="235" priority="144" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD42">
+    <cfRule type="cellIs" dxfId="234" priority="143" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD42">
+    <cfRule type="cellIs" dxfId="233" priority="142" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD43">
+    <cfRule type="cellIs" dxfId="232" priority="141" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD44">
+    <cfRule type="cellIs" dxfId="231" priority="140" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA51">
+    <cfRule type="cellIs" dxfId="230" priority="138" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA51">
+    <cfRule type="cellIs" dxfId="229" priority="137" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X40">
-    <cfRule type="cellIs" dxfId="255" priority="135" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W45:AG52 W2:AG14 W16:AG23 W26:AG43">
-    <cfRule type="cellIs" dxfId="254" priority="163" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W45:AG52 W2:AG14 W16:AG23 W26:AG43">
-    <cfRule type="cellIs" dxfId="253" priority="162" operator="equal">
+  <conditionalFormatting sqref="AH54:AR1048576">
+    <cfRule type="cellIs" dxfId="228" priority="136" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH26:AR39 AH52:AR53 AH43:AR44 AI2:AN14 AH46:AR50 AP46:AR53 AI46:AN53 AH3:AN14 AP2:AR14 AH16:AN21 AP16:AR23 AI16:AN23 AI26:AN44 AP26:AR44">
+    <cfRule type="cellIs" dxfId="227" priority="135" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO46:AO53 AO2:AO14 AO16:AO23 AO26:AO44">
+    <cfRule type="cellIs" dxfId="226" priority="134" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP22:AR23 AH22:AN23">
+    <cfRule type="cellIs" dxfId="225" priority="133" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO22:AO23">
+    <cfRule type="cellIs" dxfId="224" priority="132" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH42:AR42">
+    <cfRule type="cellIs" dxfId="223" priority="131" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH40:AR41">
+    <cfRule type="cellIs" dxfId="222" priority="130" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH46:AR53 AH2:AR14 AH16:AR23 AH26:AR44">
+    <cfRule type="cellIs" dxfId="221" priority="129" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W14 W45:W52 W16:W23 W26:W43">
-    <cfRule type="cellIs" dxfId="252" priority="161" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD3:AD4">
-    <cfRule type="cellIs" dxfId="251" priority="160" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD3:AD4">
-    <cfRule type="cellIs" dxfId="250" priority="159" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD5:AD14 AD16">
-    <cfRule type="cellIs" dxfId="249" priority="158" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD5:AD14 AD16">
-    <cfRule type="cellIs" dxfId="248" priority="157" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD20:AD21 AD17:AD18">
-    <cfRule type="cellIs" dxfId="247" priority="156" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD26 AD20:AD21 AD17:AD18">
-    <cfRule type="cellIs" dxfId="246" priority="155" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD27">
-    <cfRule type="cellIs" dxfId="245" priority="154" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD29">
-    <cfRule type="cellIs" dxfId="244" priority="153" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD30">
-    <cfRule type="cellIs" dxfId="243" priority="152" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD31">
-    <cfRule type="cellIs" dxfId="242" priority="151" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD32">
-    <cfRule type="cellIs" dxfId="241" priority="150" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD34">
-    <cfRule type="cellIs" dxfId="240" priority="149" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD35">
-    <cfRule type="cellIs" dxfId="239" priority="148" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD36">
-    <cfRule type="cellIs" dxfId="238" priority="147" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD37">
-    <cfRule type="cellIs" dxfId="237" priority="146" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD38">
-    <cfRule type="cellIs" dxfId="236" priority="145" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W40">
-    <cfRule type="cellIs" dxfId="235" priority="144" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W41">
-    <cfRule type="cellIs" dxfId="234" priority="143" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD39">
-    <cfRule type="cellIs" dxfId="233" priority="142" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD40">
-    <cfRule type="cellIs" dxfId="232" priority="141" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD40">
-    <cfRule type="cellIs" dxfId="231" priority="140" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD41">
-    <cfRule type="cellIs" dxfId="230" priority="139" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD41">
-    <cfRule type="cellIs" dxfId="229" priority="138" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD42">
-    <cfRule type="cellIs" dxfId="228" priority="137" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD43">
-    <cfRule type="cellIs" dxfId="227" priority="136" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA50">
-    <cfRule type="cellIs" dxfId="226" priority="134" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA50">
-    <cfRule type="cellIs" dxfId="225" priority="133" operator="equal">
+  <conditionalFormatting sqref="AH44:AR44">
+    <cfRule type="cellIs" dxfId="220" priority="128" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH44:AR44">
+    <cfRule type="cellIs" dxfId="219" priority="127" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH53:AR1048576">
-    <cfRule type="cellIs" dxfId="224" priority="132" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH26:AR39 AH51:AR52 AH42:AR43 AI2:AN14 AH45:AR49 AP45:AR52 AI45:AN52 AH3:AN14 AP2:AR14 AH16:AN21 AP16:AR23 AI16:AN23 AI26:AN43 AP26:AR43">
-    <cfRule type="cellIs" dxfId="223" priority="131" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO45:AO52 AO2:AO14 AO16:AO23 AO26:AO43">
-    <cfRule type="cellIs" dxfId="222" priority="130" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP22:AR23 AH22:AN23">
-    <cfRule type="cellIs" dxfId="221" priority="129" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO22:AO23">
-    <cfRule type="cellIs" dxfId="220" priority="128" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH41:AR41">
-    <cfRule type="cellIs" dxfId="219" priority="127" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH40:AR40">
+  <conditionalFormatting sqref="AH51:AR51">
     <cfRule type="cellIs" dxfId="218" priority="126" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH45:AR52 AH2:AR14 AH16:AR23 AH26:AR43">
+  <conditionalFormatting sqref="AH51:AR51">
     <cfRule type="cellIs" dxfId="217" priority="125" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH43:AR43">
-    <cfRule type="cellIs" dxfId="216" priority="124" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH43:AR43">
-    <cfRule type="cellIs" dxfId="215" priority="123" operator="equal">
+  <conditionalFormatting sqref="AI40:AI41">
+    <cfRule type="cellIs" dxfId="216" priority="96" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH46:AR53 AH2:AR14 AH16:AR23 AH26:AR44">
+    <cfRule type="cellIs" dxfId="215" priority="124" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH46:AR53 AH2:AR14 AH16:AR23 AH26:AR44">
+    <cfRule type="cellIs" dxfId="214" priority="123" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH50:AR50">
-    <cfRule type="cellIs" dxfId="214" priority="122" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH50:AR50">
-    <cfRule type="cellIs" dxfId="213" priority="121" operator="equal">
+  <conditionalFormatting sqref="AH46:AH53 AH2:AH14 AH16:AH23 AH26:AH44">
+    <cfRule type="cellIs" dxfId="213" priority="122" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO3:AO4">
+    <cfRule type="cellIs" dxfId="212" priority="121" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO3:AO4">
+    <cfRule type="cellIs" dxfId="211" priority="120" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO5:AO14 AO16">
+    <cfRule type="cellIs" dxfId="210" priority="119" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO5:AO14 AO16">
+    <cfRule type="cellIs" dxfId="209" priority="118" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO20:AO21 AO17:AO18">
+    <cfRule type="cellIs" dxfId="208" priority="117" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO26 AO20:AO21 AO17:AO18">
+    <cfRule type="cellIs" dxfId="207" priority="116" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO27">
+    <cfRule type="cellIs" dxfId="206" priority="115" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO29">
+    <cfRule type="cellIs" dxfId="205" priority="114" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO30">
+    <cfRule type="cellIs" dxfId="204" priority="113" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO31">
+    <cfRule type="cellIs" dxfId="203" priority="112" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO32">
+    <cfRule type="cellIs" dxfId="202" priority="111" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO34">
+    <cfRule type="cellIs" dxfId="201" priority="110" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO35">
+    <cfRule type="cellIs" dxfId="200" priority="109" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO36">
+    <cfRule type="cellIs" dxfId="199" priority="108" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO37">
+    <cfRule type="cellIs" dxfId="198" priority="107" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO38">
+    <cfRule type="cellIs" dxfId="197" priority="106" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH40:AH41">
+    <cfRule type="cellIs" dxfId="196" priority="105" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH42">
+    <cfRule type="cellIs" dxfId="195" priority="104" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO39">
+    <cfRule type="cellIs" dxfId="194" priority="103" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO40:AO41">
+    <cfRule type="cellIs" dxfId="193" priority="102" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO40:AO41">
+    <cfRule type="cellIs" dxfId="192" priority="101" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO42">
+    <cfRule type="cellIs" dxfId="191" priority="100" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO42">
+    <cfRule type="cellIs" dxfId="190" priority="99" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO43">
+    <cfRule type="cellIs" dxfId="189" priority="98" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO44">
+    <cfRule type="cellIs" dxfId="188" priority="97" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL51">
+    <cfRule type="cellIs" dxfId="187" priority="95" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL51">
+    <cfRule type="cellIs" dxfId="186" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI40">
-    <cfRule type="cellIs" dxfId="212" priority="92" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH45:AR52 AH2:AR14 AH16:AR23 AH26:AR43">
-    <cfRule type="cellIs" dxfId="211" priority="120" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH45:AR52 AH2:AR14 AH16:AR23 AH26:AR43">
-    <cfRule type="cellIs" dxfId="210" priority="119" operator="equal">
+  <conditionalFormatting sqref="W45">
+    <cfRule type="cellIs" dxfId="185" priority="73" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH45:AR45">
+    <cfRule type="cellIs" dxfId="184" priority="72" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH45">
+    <cfRule type="cellIs" dxfId="183" priority="67" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L45:V45 AS45:BS45">
+    <cfRule type="cellIs" dxfId="182" priority="79" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L45:V45">
+    <cfRule type="cellIs" dxfId="181" priority="78" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH45:AH52 AH2:AH14 AH16:AH23 AH26:AH43">
-    <cfRule type="cellIs" dxfId="209" priority="118" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO3:AO4">
-    <cfRule type="cellIs" dxfId="208" priority="117" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO3:AO4">
-    <cfRule type="cellIs" dxfId="207" priority="116" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO5:AO14 AO16">
-    <cfRule type="cellIs" dxfId="206" priority="115" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO5:AO14 AO16">
-    <cfRule type="cellIs" dxfId="205" priority="114" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO20:AO21 AO17:AO18">
-    <cfRule type="cellIs" dxfId="204" priority="113" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO26 AO20:AO21 AO17:AO18">
-    <cfRule type="cellIs" dxfId="203" priority="112" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO27">
-    <cfRule type="cellIs" dxfId="202" priority="111" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO29">
-    <cfRule type="cellIs" dxfId="201" priority="110" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO30">
-    <cfRule type="cellIs" dxfId="200" priority="109" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO31">
-    <cfRule type="cellIs" dxfId="199" priority="108" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO32">
-    <cfRule type="cellIs" dxfId="198" priority="107" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO34">
-    <cfRule type="cellIs" dxfId="197" priority="106" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO35">
-    <cfRule type="cellIs" dxfId="196" priority="105" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO36">
-    <cfRule type="cellIs" dxfId="195" priority="104" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO37">
-    <cfRule type="cellIs" dxfId="194" priority="103" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO38">
-    <cfRule type="cellIs" dxfId="193" priority="102" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH40">
-    <cfRule type="cellIs" dxfId="192" priority="101" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH41">
-    <cfRule type="cellIs" dxfId="191" priority="100" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO39">
-    <cfRule type="cellIs" dxfId="190" priority="99" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO40">
-    <cfRule type="cellIs" dxfId="189" priority="98" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO40">
-    <cfRule type="cellIs" dxfId="188" priority="97" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO41">
-    <cfRule type="cellIs" dxfId="187" priority="96" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO41">
-    <cfRule type="cellIs" dxfId="186" priority="95" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO42">
-    <cfRule type="cellIs" dxfId="185" priority="94" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO43">
-    <cfRule type="cellIs" dxfId="184" priority="93" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL50">
-    <cfRule type="cellIs" dxfId="183" priority="91" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL50">
-    <cfRule type="cellIs" dxfId="182" priority="90" operator="equal">
+  <conditionalFormatting sqref="W45:AG45">
+    <cfRule type="cellIs" dxfId="180" priority="77" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W45:AG45">
+    <cfRule type="cellIs" dxfId="179" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W44">
-    <cfRule type="cellIs" dxfId="181" priority="69" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH44:AR44">
-    <cfRule type="cellIs" dxfId="180" priority="68" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH44">
-    <cfRule type="cellIs" dxfId="179" priority="63" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L44:V44 AS44:BS44">
+  <conditionalFormatting sqref="W45:AG45">
     <cfRule type="cellIs" dxfId="178" priority="75" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L44:V44">
+  <conditionalFormatting sqref="W45:AG45">
     <cfRule type="cellIs" dxfId="177" priority="74" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W44:AG44">
-    <cfRule type="cellIs" dxfId="176" priority="73" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W44:AG44">
-    <cfRule type="cellIs" dxfId="175" priority="72" operator="equal">
+  <conditionalFormatting sqref="AO45">
+    <cfRule type="cellIs" dxfId="176" priority="71" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH45:AR45">
+    <cfRule type="cellIs" dxfId="175" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W44:AG44">
-    <cfRule type="cellIs" dxfId="174" priority="71" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W44:AG44">
-    <cfRule type="cellIs" dxfId="173" priority="70" operator="equal">
+  <conditionalFormatting sqref="AH45:AR45">
+    <cfRule type="cellIs" dxfId="174" priority="69" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH45:AR45">
+    <cfRule type="cellIs" dxfId="173" priority="68" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO44">
-    <cfRule type="cellIs" dxfId="172" priority="67" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH44:AR44">
-    <cfRule type="cellIs" dxfId="171" priority="66" operator="equal">
+  <conditionalFormatting sqref="BS9">
+    <cfRule type="cellIs" dxfId="172" priority="66" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS10">
+    <cfRule type="cellIs" dxfId="171" priority="65" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T15:V15 L15:R15 AS15:BS15">
+    <cfRule type="cellIs" dxfId="170" priority="45" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S15">
+    <cfRule type="cellIs" dxfId="169" priority="44" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15:V15">
+    <cfRule type="cellIs" dxfId="168" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH44:AR44">
-    <cfRule type="cellIs" dxfId="170" priority="65" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH44:AR44">
-    <cfRule type="cellIs" dxfId="169" priority="64" operator="equal">
+  <conditionalFormatting sqref="W15:AC15 AE15:AG15">
+    <cfRule type="cellIs" dxfId="167" priority="42" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD15">
+    <cfRule type="cellIs" dxfId="166" priority="41" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W15:AG15">
+    <cfRule type="cellIs" dxfId="165" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS9">
-    <cfRule type="cellIs" dxfId="168" priority="62" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS10">
-    <cfRule type="cellIs" dxfId="167" priority="61" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T15:V15 L15:R15 AS15:BS15">
-    <cfRule type="cellIs" dxfId="166" priority="41" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S15">
-    <cfRule type="cellIs" dxfId="165" priority="40" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15:V15">
+  <conditionalFormatting sqref="W15:AG15">
     <cfRule type="cellIs" dxfId="164" priority="39" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W15:AG15">
+    <cfRule type="cellIs" dxfId="163" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W15:AC15 AE15:AG15">
-    <cfRule type="cellIs" dxfId="163" priority="38" operator="equal">
+  <conditionalFormatting sqref="W15">
+    <cfRule type="cellIs" dxfId="162" priority="37" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD15">
-    <cfRule type="cellIs" dxfId="162" priority="37" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W15:AG15">
     <cfRule type="cellIs" dxfId="161" priority="36" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD15">
+    <cfRule type="cellIs" dxfId="160" priority="35" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH15:AN15 AP15:AR15">
+    <cfRule type="cellIs" dxfId="159" priority="34" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO15">
+    <cfRule type="cellIs" dxfId="158" priority="33" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH15:AR15">
+    <cfRule type="cellIs" dxfId="157" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W15:AG15">
-    <cfRule type="cellIs" dxfId="160" priority="35" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W15:AG15">
-    <cfRule type="cellIs" dxfId="159" priority="34" operator="equal">
+  <conditionalFormatting sqref="AH15:AR15">
+    <cfRule type="cellIs" dxfId="156" priority="31" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH15:AR15">
+    <cfRule type="cellIs" dxfId="155" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W15">
-    <cfRule type="cellIs" dxfId="158" priority="33" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD15">
-    <cfRule type="cellIs" dxfId="157" priority="32" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD15">
-    <cfRule type="cellIs" dxfId="156" priority="31" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH15:AN15 AP15:AR15">
-    <cfRule type="cellIs" dxfId="155" priority="30" operator="equal">
+  <conditionalFormatting sqref="AH15">
+    <cfRule type="cellIs" dxfId="154" priority="29" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO15">
-    <cfRule type="cellIs" dxfId="154" priority="29" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH15:AR15">
     <cfRule type="cellIs" dxfId="153" priority="28" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO15">
+    <cfRule type="cellIs" dxfId="152" priority="27" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X23:AG23">
+    <cfRule type="cellIs" dxfId="151" priority="26" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD24:BR25 B24:R25">
+    <cfRule type="cellIs" dxfId="150" priority="25" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T24:V25 AS24:BC25">
+    <cfRule type="cellIs" dxfId="149" priority="24" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S24:S25">
+    <cfRule type="cellIs" dxfId="148" priority="23" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24:V25">
+    <cfRule type="cellIs" dxfId="147" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH15:AR15">
-    <cfRule type="cellIs" dxfId="152" priority="27" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH15:AR15">
-    <cfRule type="cellIs" dxfId="151" priority="26" operator="equal">
+  <conditionalFormatting sqref="W24:AG25">
+    <cfRule type="cellIs" dxfId="146" priority="21" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD24:AD25">
+    <cfRule type="cellIs" dxfId="145" priority="20" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W24:AG25">
+    <cfRule type="cellIs" dxfId="144" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH15">
-    <cfRule type="cellIs" dxfId="150" priority="25" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO15">
-    <cfRule type="cellIs" dxfId="149" priority="24" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO15">
-    <cfRule type="cellIs" dxfId="148" priority="23" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X23:AG23">
-    <cfRule type="cellIs" dxfId="147" priority="22" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD24:BR25 B24:R25">
-    <cfRule type="cellIs" dxfId="146" priority="21" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T24:V25 AS24:BC25">
-    <cfRule type="cellIs" dxfId="145" priority="20" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S24:S25">
-    <cfRule type="cellIs" dxfId="144" priority="19" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24:V25">
+  <conditionalFormatting sqref="W24:AG25">
     <cfRule type="cellIs" dxfId="143" priority="18" operator="equal">
-      <formula>0</formula>
+      <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W24:AG25">
     <cfRule type="cellIs" dxfId="142" priority="17" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD24:AD25">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W24:W25">
     <cfRule type="cellIs" dxfId="141" priority="16" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W24:AG25">
+  <conditionalFormatting sqref="AP24:AR25 AI24:AN25">
     <cfRule type="cellIs" dxfId="140" priority="15" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO24:AO25">
+    <cfRule type="cellIs" dxfId="139" priority="14" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP24:AR25 AH24:AN25">
+    <cfRule type="cellIs" dxfId="138" priority="13" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO24:AO25">
+    <cfRule type="cellIs" dxfId="137" priority="12" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH24:AR25">
+    <cfRule type="cellIs" dxfId="136" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W24:AG25">
-    <cfRule type="cellIs" dxfId="139" priority="14" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W24:AG25">
-    <cfRule type="cellIs" dxfId="138" priority="13" operator="equal">
+  <conditionalFormatting sqref="AH24:AR25">
+    <cfRule type="cellIs" dxfId="135" priority="10" operator="equal">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH24:AR25">
+    <cfRule type="cellIs" dxfId="134" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W24:W25">
-    <cfRule type="cellIs" dxfId="137" priority="12" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP24:AR25 AI24:AN25">
-    <cfRule type="cellIs" dxfId="136" priority="11" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO24:AO25">
-    <cfRule type="cellIs" dxfId="135" priority="10" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP24:AR25 AH24:AN25">
-    <cfRule type="cellIs" dxfId="134" priority="9" operator="equal">
-      <formula>"nan"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO24:AO25">
+  <conditionalFormatting sqref="AH24:AH25">
     <cfRule type="cellIs" dxfId="133" priority="8" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH24:AR25">
+  <conditionalFormatting sqref="X24:AG25">
     <cfRule type="cellIs" dxfId="132" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH24:AR25">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS24">
     <cfRule type="cellIs" dxfId="131" priority="6" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH24:AR25">
+  <conditionalFormatting sqref="BS25">
     <cfRule type="cellIs" dxfId="130" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH24:AH25">
+      <formula>"nan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:K41">
     <cfRule type="cellIs" dxfId="129" priority="4" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X24:AG25">
+  <conditionalFormatting sqref="AD41">
     <cfRule type="cellIs" dxfId="128" priority="3" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS24">
+  <conditionalFormatting sqref="AD41">
     <cfRule type="cellIs" dxfId="127" priority="2" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS25">
+  <conditionalFormatting sqref="BS41">
     <cfRule type="cellIs" dxfId="126" priority="1" operator="equal">
       <formula>"nan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G52">
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G53">
       <formula1>"10,natural"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:K52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:K53">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:AG52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:AG53">
       <formula1>" g,m/s2,cm/s2,m/s,cm/s,m,cm,g*sec,-"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="BS49" r:id="rId1"/>
-    <hyperlink ref="BS43" r:id="rId2"/>
-    <hyperlink ref="BS50" r:id="rId3"/>
+    <hyperlink ref="BS50" r:id="rId1"/>
+    <hyperlink ref="BS44" r:id="rId2"/>
+    <hyperlink ref="BS51" r:id="rId3"/>
     <hyperlink ref="BS8" r:id="rId4"/>
-    <hyperlink ref="BS44" r:id="rId5"/>
+    <hyperlink ref="BS45" r:id="rId5"/>
     <hyperlink ref="BS9" r:id="rId6"/>
     <hyperlink ref="BS10" r:id="rId7"/>
     <hyperlink ref="BS23" r:id="rId8"/>
     <hyperlink ref="BS24" r:id="rId9" display="https://doi.org/10.1193%2F072114eqs116m"/>
     <hyperlink ref="BS25" r:id="rId10"/>
+    <hyperlink ref="BS41" r:id="rId11"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.11811023622047245" top="0.19685039370078741" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup scale="90" orientation="portrait" horizontalDpi="4294967293" r:id="rId11"/>
+  <pageSetup scale="90" orientation="portrait" horizontalDpi="4294967293" r:id="rId12"/>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="57" max="1048575" man="1"/>
     <brk id="48" max="1048575" man="1"/>
   </colBreaks>
   <ignoredErrors>
-    <ignoredError sqref="AO45:AO52 AO26:AO43 AO2:AO8 AO11:AO14 AO16:AO22" formula="1"/>
+    <ignoredError sqref="AO46:AO53 AO42:AO44 AO2:AO8 AO11:AO14 AO16:AO22 AO26:AO40" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R27"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="13" width="11.42578125" style="34"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>324</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>329</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>-1</v>
-      </c>
-      <c r="B4" s="34">
-        <v>400</v>
-      </c>
-      <c r="C4" s="34">
-        <v>-1.9550000000000001</v>
-      </c>
-      <c r="D4" s="34">
-        <v>-1.2</v>
-      </c>
-      <c r="E4" s="34">
-        <v>0.09</v>
-      </c>
-      <c r="F4" s="34">
-        <v>0.05</v>
-      </c>
-      <c r="G4" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="H4" s="34">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="I4" s="34">
-        <v>-1.847</v>
-      </c>
-      <c r="J4" s="34">
-        <v>0.373</v>
-      </c>
-      <c r="K4" s="34">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="L4" s="34">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="M4" s="34">
-        <v>0.17</v>
-      </c>
-      <c r="R4">
-        <v>1.5389999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1E-3</v>
-      </c>
-      <c r="B5" s="34">
-        <v>865.1</v>
-      </c>
-      <c r="C5" s="34">
-        <v>-1.1859999999999999</v>
-      </c>
-      <c r="D5" s="34">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E5" s="34">
-        <v>-0.16</v>
-      </c>
-      <c r="F5" s="34">
-        <v>-0.105</v>
-      </c>
-      <c r="G5" s="34">
-        <v>0</v>
-      </c>
-      <c r="H5" s="34">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I5" s="34">
-        <v>-1.23</v>
-      </c>
-      <c r="J5" s="34">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="K5" s="34">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="L5" s="34">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="M5" s="34">
-        <v>0.161</v>
-      </c>
-      <c r="O5">
-        <f>ABS(I5)</f>
-        <v>1.23</v>
-      </c>
-      <c r="R5">
-        <v>0.94450000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47">
-        <v>0.01</v>
-      </c>
-      <c r="B6" s="48">
-        <v>865.1</v>
-      </c>
-      <c r="C6" s="48">
-        <v>-1.1859999999999999</v>
-      </c>
-      <c r="D6" s="48">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E6" s="48">
-        <v>-0.16</v>
-      </c>
-      <c r="F6" s="48">
-        <v>-0.105</v>
-      </c>
-      <c r="G6" s="48">
-        <v>0</v>
-      </c>
-      <c r="H6" s="48">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I6" s="48">
-        <v>-1.23</v>
-      </c>
-      <c r="J6" s="48">
-        <v>0.45</v>
-      </c>
-      <c r="K6" s="48">
-        <v>0.33</v>
-      </c>
-      <c r="L6" s="48">
-        <v>0.23</v>
-      </c>
-      <c r="M6" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="O6" s="47">
-        <f t="shared" ref="O6:O27" si="0">ABS(I6)</f>
-        <v>1.23</v>
-      </c>
-      <c r="R6" s="47">
-        <v>0.94450000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.02</v>
-      </c>
-      <c r="B7" s="34">
-        <v>865.1</v>
-      </c>
-      <c r="C7" s="34">
-        <v>-1.2190000000000001</v>
-      </c>
-      <c r="D7" s="34">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E7" s="34">
-        <v>-0.16</v>
-      </c>
-      <c r="F7" s="34">
-        <v>-0.105</v>
-      </c>
-      <c r="G7" s="34">
-        <v>0</v>
-      </c>
-      <c r="H7" s="34">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I7" s="34">
-        <v>-1.268</v>
-      </c>
-      <c r="J7" s="34">
-        <v>0.45</v>
-      </c>
-      <c r="K7" s="34">
-        <v>0.33</v>
-      </c>
-      <c r="L7" s="34">
-        <v>0.23</v>
-      </c>
-      <c r="M7" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
-        <v>1.268</v>
-      </c>
-      <c r="R7">
-        <v>0.98340000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="B8" s="34">
-        <v>898.6</v>
-      </c>
-      <c r="C8" s="34">
-        <v>-1.2689999999999999</v>
-      </c>
-      <c r="D8" s="34">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="E8" s="34">
-        <v>-0.185</v>
-      </c>
-      <c r="F8" s="34">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="G8" s="34">
-        <v>0</v>
-      </c>
-      <c r="H8" s="34">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I8" s="34">
-        <v>-1.3660000000000001</v>
-      </c>
-      <c r="J8" s="34">
-        <v>0.45</v>
-      </c>
-      <c r="K8" s="34">
-        <v>0.33</v>
-      </c>
-      <c r="L8" s="34">
-        <v>0.23</v>
-      </c>
-      <c r="M8" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
-        <v>1.3660000000000001</v>
-      </c>
-      <c r="R8">
-        <v>1.0470999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.04</v>
-      </c>
-      <c r="B9" s="34">
-        <v>994.5</v>
-      </c>
-      <c r="C9" s="34">
-        <v>-1.3080000000000001</v>
-      </c>
-      <c r="D9" s="34">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="E9" s="34">
-        <v>-0.23799999999999999</v>
-      </c>
-      <c r="F9" s="34">
-        <v>-0.16</v>
-      </c>
-      <c r="G9" s="34">
-        <v>0</v>
-      </c>
-      <c r="H9" s="34">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I9" s="34">
-        <v>-1.4570000000000001</v>
-      </c>
-      <c r="J9" s="34">
-        <v>0.45</v>
-      </c>
-      <c r="K9" s="34">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="L9" s="34">
-        <v>0.23</v>
-      </c>
-      <c r="M9" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
-        <v>1.4570000000000001</v>
-      </c>
-      <c r="R9">
-        <v>1.0884</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.05</v>
-      </c>
-      <c r="B10" s="34">
-        <v>1053.5</v>
-      </c>
-      <c r="C10" s="34">
-        <v>-1.3460000000000001</v>
-      </c>
-      <c r="D10" s="34">
-        <v>0.72</v>
-      </c>
-      <c r="E10" s="34">
-        <v>-0.27500000000000002</v>
-      </c>
-      <c r="F10" s="34">
-        <v>-0.13600000000000001</v>
-      </c>
-      <c r="G10" s="34">
-        <v>0</v>
-      </c>
-      <c r="H10" s="34">
-        <v>-1E-3</v>
-      </c>
-      <c r="I10" s="34">
-        <v>-1.5329999999999999</v>
-      </c>
-      <c r="J10" s="34">
-        <v>0.45</v>
-      </c>
-      <c r="K10" s="34">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="L10" s="34">
-        <v>0.23</v>
-      </c>
-      <c r="M10" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="0"/>
-        <v>1.5329999999999999</v>
-      </c>
-      <c r="R10">
-        <v>1.1333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="B11" s="34">
-        <v>1085.7</v>
-      </c>
-      <c r="C11" s="34">
-        <v>-1.4710000000000001</v>
-      </c>
-      <c r="D11" s="34">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="E11" s="34">
-        <v>-0.24</v>
-      </c>
-      <c r="F11" s="34">
-        <v>-1.9E-2</v>
-      </c>
-      <c r="G11" s="34">
-        <v>0</v>
-      </c>
-      <c r="H11" s="34">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="I11" s="34">
-        <v>-1.706</v>
-      </c>
-      <c r="J11" s="34">
-        <v>0.45</v>
-      </c>
-      <c r="K11" s="34">
-        <v>0.37</v>
-      </c>
-      <c r="L11" s="34">
-        <v>0.23</v>
-      </c>
-      <c r="M11" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="0"/>
-        <v>1.706</v>
-      </c>
-      <c r="R11">
-        <v>1.2807999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0.1</v>
-      </c>
-      <c r="B12" s="34">
-        <v>1032.5</v>
-      </c>
-      <c r="C12" s="34">
-        <v>-1.6240000000000001</v>
-      </c>
-      <c r="D12" s="34">
-        <v>0.214</v>
-      </c>
-      <c r="E12" s="34">
-        <v>-0.16900000000000001</v>
-      </c>
-      <c r="F12" s="34">
-        <v>0</v>
-      </c>
-      <c r="G12" s="34">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="H12" s="34">
-        <v>-0.01</v>
-      </c>
-      <c r="I12" s="34">
-        <v>-1.831</v>
-      </c>
-      <c r="J12" s="34">
-        <v>0.45</v>
-      </c>
-      <c r="K12" s="34">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="L12" s="34">
-        <v>0.23</v>
-      </c>
-      <c r="M12" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
-        <v>1.831</v>
-      </c>
-      <c r="R12">
-        <v>1.4613</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0.15</v>
-      </c>
-      <c r="B13" s="34">
-        <v>877.6</v>
-      </c>
-      <c r="C13" s="34">
-        <v>-1.931</v>
-      </c>
-      <c r="D13" s="34">
-        <v>-0.26200000000000001</v>
-      </c>
-      <c r="E13" s="34">
-        <v>-6.9000000000000006E-2</v>
-      </c>
-      <c r="F13" s="34">
-        <v>0</v>
-      </c>
-      <c r="G13" s="34">
-        <v>0.04</v>
-      </c>
-      <c r="H13" s="34">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="I13" s="34">
-        <v>-2.1139999999999999</v>
-      </c>
-      <c r="J13" s="34">
-        <v>0.45</v>
-      </c>
-      <c r="K13" s="34">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="L13" s="34">
-        <v>0.23</v>
-      </c>
-      <c r="M13" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="0"/>
-        <v>2.1139999999999999</v>
-      </c>
-      <c r="R13">
-        <v>1.8070999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0.2</v>
-      </c>
-      <c r="B14" s="34">
-        <v>748.2</v>
-      </c>
-      <c r="C14" s="34">
-        <v>-2.1880000000000002</v>
-      </c>
-      <c r="D14" s="34">
-        <v>-0.6</v>
-      </c>
-      <c r="E14" s="34">
-        <v>2E-3</v>
-      </c>
-      <c r="F14" s="34">
-        <v>0</v>
-      </c>
-      <c r="G14" s="34">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="H14" s="34">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="I14" s="34">
-        <v>-2.3620000000000001</v>
-      </c>
-      <c r="J14" s="34">
-        <v>0.45</v>
-      </c>
-      <c r="K14" s="34">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="L14" s="34">
-        <v>0.23</v>
-      </c>
-      <c r="M14" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="0"/>
-        <v>2.3620000000000001</v>
-      </c>
-      <c r="R14">
-        <v>2.0773000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0.26</v>
-      </c>
-      <c r="B15" s="34">
-        <v>639</v>
-      </c>
-      <c r="C15" s="34">
-        <v>-2.4119999999999999</v>
-      </c>
-      <c r="D15" s="34">
-        <v>-0.76900000000000002</v>
-      </c>
-      <c r="E15" s="34">
-        <v>2.3E-2</v>
-      </c>
-      <c r="F15" s="34">
-        <v>0</v>
-      </c>
-      <c r="G15" s="34">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="H15" s="34">
-        <v>1E-3</v>
-      </c>
-      <c r="I15" s="34">
-        <v>-2.5270000000000001</v>
-      </c>
-      <c r="J15" s="34">
-        <v>0.45</v>
-      </c>
-      <c r="K15" s="34">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="L15" s="34">
-        <v>0.23</v>
-      </c>
-      <c r="M15" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
-        <v>2.5270000000000001</v>
-      </c>
-      <c r="R15">
-        <v>2.2793999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0.3</v>
-      </c>
-      <c r="B16" s="34">
-        <v>587.1</v>
-      </c>
-      <c r="C16" s="34">
-        <v>-2.5179999999999998</v>
-      </c>
-      <c r="D16" s="34">
-        <v>-0.86099999999999999</v>
-      </c>
-      <c r="E16" s="34">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="F16" s="34">
-        <v>0</v>
-      </c>
-      <c r="G16" s="34">
-        <v>0.08</v>
-      </c>
-      <c r="H16" s="34">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I16" s="34">
-        <v>-2.5979999999999999</v>
-      </c>
-      <c r="J16" s="34">
-        <v>0.45</v>
-      </c>
-      <c r="K16" s="34">
-        <v>0.436</v>
-      </c>
-      <c r="L16" s="34">
-        <v>0.23</v>
-      </c>
-      <c r="M16" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="0"/>
-        <v>2.5979999999999999</v>
-      </c>
-      <c r="R16">
-        <v>2.4201000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0.4</v>
-      </c>
-      <c r="B17" s="34">
-        <v>503</v>
-      </c>
-      <c r="C17" s="34">
-        <v>-2.657</v>
-      </c>
-      <c r="D17" s="34">
-        <v>-1.0449999999999999</v>
-      </c>
-      <c r="E17" s="34">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="F17" s="34">
-        <v>0</v>
-      </c>
-      <c r="G17" s="34">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="H17" s="34">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="I17" s="34">
-        <v>-2.6850000000000001</v>
-      </c>
-      <c r="J17" s="34">
-        <v>0.45</v>
-      </c>
-      <c r="K17" s="34">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="L17" s="34">
-        <v>0.23</v>
-      </c>
-      <c r="M17" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="0"/>
-        <v>2.6850000000000001</v>
-      </c>
-      <c r="R17">
-        <v>2.5510000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0.5</v>
-      </c>
-      <c r="B18" s="34">
-        <v>456.6</v>
-      </c>
-      <c r="C18" s="34">
-        <v>-2.669</v>
-      </c>
-      <c r="D18" s="34">
-        <v>-1.1890000000000001</v>
-      </c>
-      <c r="E18" s="34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="F18" s="34">
-        <v>0</v>
-      </c>
-      <c r="G18" s="34">
-        <v>0.11</v>
-      </c>
-      <c r="H18" s="34">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="I18" s="34">
-        <v>-2.657</v>
-      </c>
-      <c r="J18" s="34">
-        <v>0.45</v>
-      </c>
-      <c r="K18" s="34">
-        <v>0.46</v>
-      </c>
-      <c r="L18" s="34">
-        <v>0.23</v>
-      </c>
-      <c r="M18" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="0"/>
-        <v>2.657</v>
-      </c>
-      <c r="R18">
-        <v>2.5394999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0.75</v>
-      </c>
-      <c r="B19" s="34">
-        <v>410.5</v>
-      </c>
-      <c r="C19" s="34">
-        <v>-2.4009999999999998</v>
-      </c>
-      <c r="D19" s="34">
-        <v>-1.25</v>
-      </c>
-      <c r="E19" s="34">
-        <v>0.09</v>
-      </c>
-      <c r="F19" s="34">
-        <v>0</v>
-      </c>
-      <c r="G19" s="34">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="H19" s="34">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="I19" s="34">
-        <v>-2.2650000000000001</v>
-      </c>
-      <c r="J19" s="34">
-        <v>0.45</v>
-      </c>
-      <c r="K19" s="34">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="L19" s="34">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="M19" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="0"/>
-        <v>2.2650000000000001</v>
-      </c>
-      <c r="R19">
-        <v>2.1493000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" s="34">
-        <v>400</v>
-      </c>
-      <c r="C20" s="34">
-        <v>-1.9550000000000001</v>
-      </c>
-      <c r="D20" s="34">
-        <v>-1.2090000000000001</v>
-      </c>
-      <c r="E20" s="34">
-        <v>0.09</v>
-      </c>
-      <c r="F20" s="34">
-        <v>0</v>
-      </c>
-      <c r="G20" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="H20" s="34">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="I20" s="34">
-        <v>-1.6850000000000001</v>
-      </c>
-      <c r="J20" s="34">
-        <v>0.45</v>
-      </c>
-      <c r="K20" s="34">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="L20" s="34">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="M20" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="0"/>
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="R20">
-        <v>1.5705</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1.5</v>
-      </c>
-      <c r="B21" s="34">
-        <v>400</v>
-      </c>
-      <c r="C21" s="34">
-        <v>-1.0249999999999999</v>
-      </c>
-      <c r="D21" s="34">
-        <v>-1.1519999999999999</v>
-      </c>
-      <c r="E21" s="34">
-        <v>0.09</v>
-      </c>
-      <c r="F21" s="34">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="G21" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="H21" s="34">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="I21" s="34">
-        <v>-0.56999999999999995</v>
-      </c>
-      <c r="J21" s="34">
-        <v>0.45</v>
-      </c>
-      <c r="K21" s="34">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="L21" s="34">
-        <v>0.307</v>
-      </c>
-      <c r="M21" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="0"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="R21">
-        <v>0.39910000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" s="34">
-        <v>400</v>
-      </c>
-      <c r="C22" s="34">
-        <v>-0.29899999999999999</v>
-      </c>
-      <c r="D22" s="34">
-        <v>-1.111</v>
-      </c>
-      <c r="E22" s="34">
-        <v>0.09</v>
-      </c>
-      <c r="F22" s="34">
-        <v>0.05</v>
-      </c>
-      <c r="G22" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="H22" s="34">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="I22" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="J22" s="34">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="K22" s="34">
-        <v>0.52</v>
-      </c>
-      <c r="L22" s="34">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="M22" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="R22">
-        <v>-0.60719999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23" s="34">
-        <v>400</v>
-      </c>
-      <c r="C23" s="34">
-        <v>0</v>
-      </c>
-      <c r="D23" s="34">
-        <v>-1.054</v>
-      </c>
-      <c r="E23" s="34">
-        <v>0.09</v>
-      </c>
-      <c r="F23" s="34">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="G23" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="H23" s="34">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="I23" s="34">
-        <v>0.46</v>
-      </c>
-      <c r="J23" s="34">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="K23" s="34">
-        <v>0.52</v>
-      </c>
-      <c r="L23" s="34">
-        <v>0.378</v>
-      </c>
-      <c r="M23" s="34">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="0"/>
-        <v>0.46</v>
-      </c>
-      <c r="R23">
-        <v>-0.96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24" s="34">
-        <v>400</v>
-      </c>
-      <c r="C24" s="34">
-        <v>0</v>
-      </c>
-      <c r="D24" s="34">
-        <v>-1.014</v>
-      </c>
-      <c r="E24" s="34">
-        <v>0.09</v>
-      </c>
-      <c r="F24" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="G24" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="H24" s="34">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="I24" s="34">
-        <v>0.46</v>
-      </c>
-      <c r="J24" s="34">
-        <v>0.7</v>
-      </c>
-      <c r="K24" s="34">
-        <v>0.52</v>
-      </c>
-      <c r="L24" s="34">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="M24" s="34">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="0"/>
-        <v>0.46</v>
-      </c>
-      <c r="R24">
-        <v>-0.96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25" s="34">
-        <v>400</v>
-      </c>
-      <c r="C25" s="34">
-        <v>0</v>
-      </c>
-      <c r="D25" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E25" s="34">
-        <v>0.09</v>
-      </c>
-      <c r="F25" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="G25" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="H25" s="34">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="I25" s="34">
-        <v>0.46</v>
-      </c>
-      <c r="J25" s="34">
-        <v>0.7</v>
-      </c>
-      <c r="K25" s="34">
-        <v>0.52</v>
-      </c>
-      <c r="L25" s="34">
-        <v>0.43</v>
-      </c>
-      <c r="M25" s="34">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="0"/>
-        <v>0.46</v>
-      </c>
-      <c r="R25">
-        <v>-0.92079999999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>7.5</v>
-      </c>
-      <c r="B26" s="34">
-        <v>400</v>
-      </c>
-      <c r="C26" s="34">
-        <v>0</v>
-      </c>
-      <c r="D26" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E26" s="34">
-        <v>0.09</v>
-      </c>
-      <c r="F26" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="G26" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="H26" s="34">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="I26" s="34">
-        <v>0.46</v>
-      </c>
-      <c r="J26" s="34">
-        <v>0.7</v>
-      </c>
-      <c r="K26" s="34">
-        <v>0.52</v>
-      </c>
-      <c r="L26" s="34">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="M26" s="34">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="0"/>
-        <v>0.46</v>
-      </c>
-      <c r="R26">
-        <v>-0.77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>10</v>
-      </c>
-      <c r="B27" s="34">
-        <v>400</v>
-      </c>
-      <c r="C27" s="34">
-        <v>0</v>
-      </c>
-      <c r="D27" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E27" s="34">
-        <v>0.09</v>
-      </c>
-      <c r="F27" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="G27" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="H27" s="34">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="I27" s="34">
-        <v>0.46</v>
-      </c>
-      <c r="J27" s="34">
-        <v>0.7</v>
-      </c>
-      <c r="K27" s="34">
-        <v>0.52</v>
-      </c>
-      <c r="L27" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="M27" s="34">
-        <v>0.4</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="0"/>
-        <v>0.46</v>
-      </c>
-      <c r="R27">
-        <v>-0.66300000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
@@ -18179,7 +16183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS49"/>
   <sheetViews>
@@ -20594,7 +18598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU3"/>
   <sheetViews>
@@ -21079,7 +19083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A3"/>
   <sheetViews>
@@ -21104,11 +19108,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -21283,21 +19287,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>